--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Report.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\server\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duong\Projects\Hau\KNTC\Code\PostgreSQL\src\aspnet-core 7.0\src\KNTC.HttpApi.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$18:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$18:$P$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>HTTTTT Quản lý Đơn thư Khiếu nại, Tố cáo</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>BÁO CÁO ĐƠN THƯ KHIẾU NẠI - TỐ CÁO</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -568,32 +571,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -608,7 +612,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -623,7 +627,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="4" spans="1:15" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
@@ -641,33 +645,34 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
@@ -675,7 +680,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
@@ -683,7 +688,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,7 +696,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -699,7 +704,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +712,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
@@ -715,7 +720,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -756,13 +761,16 @@
         <v>20</v>
       </c>
       <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -805,11 +813,14 @@
       <c r="N18" s="4">
         <v>14</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -831,21 +842,22 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A18:O18"/>
+  <autoFilter ref="A18:P18"/>
   <mergeCells count="5">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:P4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>

--- a/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Report.xlsx
+++ b/src/aspnet-core 7.0/src/KNTC.HttpApi.Host/wwwroot/ExcelTemplate/Report.xlsx
@@ -55,15 +55,6 @@
     <t>Ngày hẹn trả KQ</t>
   </si>
   <si>
-    <t>Quận/Huyện:</t>
-  </si>
-  <si>
-    <t>Tỉnh/TP:</t>
-  </si>
-  <si>
-    <t>Xã/Phường:</t>
-  </si>
-  <si>
     <t>Kết quả:</t>
   </si>
   <si>
@@ -137,6 +128,15 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Tỉnh:</t>
+  </si>
+  <si>
+    <t>Huyện/TP:</t>
+  </si>
+  <si>
+    <t>Phường/Xã:</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -599,13 +599,13 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="F1" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -614,13 +614,13 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="F2" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="4" spans="1:16" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -653,28 +653,28 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -698,7 +698,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -706,7 +706,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -714,7 +714,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -725,31 +725,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>3</v>
@@ -758,16 +758,16 @@
         <v>4</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
